--- a/PangkalanData/public/Template/Template Perpustakaan.xlsx
+++ b/PangkalanData/public/Template/Template Perpustakaan.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Provinsi</t>
-  </si>
-  <si>
-    <t>Unit</t>
   </si>
   <si>
     <t>Jumlah Buku</t>
@@ -42,8 +39,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -65,44 +62,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -115,8 +74,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,30 +152,37 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,29 +190,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -208,6 +198,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,31 +225,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,151 +285,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,6 +434,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -448,15 +469,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,21 +512,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -537,148 +534,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1036,13 +1033,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B13" sqref="B1:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="29.4259259259259" customWidth="1"/>
     <col min="2" max="3" width="17.5648148148148" customWidth="1"/>
@@ -1052,7 +1049,7 @@
     <col min="7" max="7" width="17.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1" spans="1:7">
+    <row r="1" ht="25" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1071,15 +1068,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
     </row>
     <row r="3" ht="22" customHeight="1"/>
   </sheetData>

--- a/PangkalanData/public/Template/Template Perpustakaan.xlsx
+++ b/PangkalanData/public/Template/Template Perpustakaan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9335"/>
+    <workbookView windowWidth="21000" windowHeight="8592"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Provinsi</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Jumlah Buku</t>
   </si>
@@ -40,9 +37,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -59,10 +56,25 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -74,31 +86,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,92 +177,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,43 +222,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,139 +396,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,16 +441,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,6 +487,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -498,16 +506,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,162 +528,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1033,13 +1030,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B1:B13"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="29.4259259259259" customWidth="1"/>
     <col min="2" max="3" width="17.5648148148148" customWidth="1"/>
@@ -1049,7 +1046,7 @@
     <col min="7" max="7" width="17.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1" spans="1:6">
+    <row r="1" ht="25" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1065,14 +1062,10 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
     </row>
     <row r="3" ht="22" customHeight="1"/>
   </sheetData>

--- a/PangkalanData/public/Template/Template Perpustakaan.xlsx
+++ b/PangkalanData/public/Template/Template Perpustakaan.xlsx
@@ -81,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -108,9 +108,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,61 +131,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,6 +154,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -199,18 +177,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -222,17 +193,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,78 +285,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -369,25 +429,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,73 +459,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,6 +555,45 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,6 +622,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -598,45 +648,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -645,164 +656,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1182,7 +1182,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G1" sqref="G1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1344,11 +1344,11 @@
     <mergeCell ref="H1:H2"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah" error="Harus Berupa Angka" sqref="D1:D2;E1:E2;G1:G2"/>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah" error="Harus Berupa Angka" sqref="D3:D1048576;E3:E1048576;G3:G1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah!" error="Harus Berupa Angka" sqref="D1:D2 E1:E2 G1:G2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah" error="Harus Memilih dari Daftar" sqref="F1:F2"/>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah!" error="Harus Berupa Angka" sqref="D3:D1048576 E3:E1048576 G3:G1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah" error="Harus Memilih dari Daftar" sqref="F1:F2"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah" error="Harus Memilih dari Daftar" sqref="F3:F1048576">
       <formula1>$A$17:$A$23</formula1>
     </dataValidation>
